--- a/DragPrediction/NL2VP DragX/1T/n/4/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1T/n/4/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11050622832632233</v>
+        <v>0.56825286000000008</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>2.3468966421634341</v>
+        <v>12.068376138000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" si="0">A3*$E$1</f>
-        <v>0.44990863940196696</v>
+        <v>2.313551688</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11226851036200414</v>
+        <v>0.57731498999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.50971943725595459</v>
+        <v>2.6211149580000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.11494427302445455</v>
+        <v>0.59107448400000007</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.42817842326435951</v>
+        <v>2.20180905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>7.8527153561355367E-2</v>
+        <v>0.40380782399999998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-5.7437987780082647E-2</v>
+        <v>-0.29536164000000004</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>8.8102887670425623E-2</v>
+        <v>0.45304883400000007</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-4.7764168972537192E-2</v>
+        <v>-0.24561625200000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>9.452601017449587E-2</v>
+        <v>0.48607826400000004</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6.2435725379181822E-2</v>
+        <v>0.32106135600000002</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>8.3756442597024805E-2</v>
+        <v>0.43069824000000007</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>6.6511087836012409E-2</v>
+        <v>0.34201797000000006</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>8.1926908549747934E-2</v>
+        <v>0.42129028200000002</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>7.1613934268876037E-2</v>
+        <v>0.36825818400000004</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7.3575309702012398E-2</v>
+        <v>0.37834410600000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>5.2785821302016527E-2</v>
+        <v>0.27143894400000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.10288309764887603</v>
+        <v>0.52905266400000006</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-9.0669204503950412E-2</v>
+        <v>-0.46624552800000002</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>9.0078834100487615E-2</v>
+        <v>0.46320968400000007</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-9.0762004765760337E-2</v>
+        <v>-0.46672273200000003</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4.9379777262260331E-2</v>
+        <v>0.25392414600000002</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,10 +806,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-8.8098493502070246E-2</v>
+        <v>-0.45302623800000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>